--- a/Initial_conditions.xlsx
+++ b/Initial_conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david.gonzalez\Documents\GitHub\Cost-Benefits-allocation-on-EC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5BADD8-8BAB-41BC-977C-A5B7D8E64F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE6516C-467D-4E60-B8E1-80B82336D69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Number of agents</t>
   </si>
@@ -60,13 +60,25 @@
     <t>PERFILGEN</t>
   </si>
   <si>
-    <t>Symbol within R</t>
-  </si>
-  <si>
-    <t>Selected simulation within the "" group to be simulated along the different cost allocation methods</t>
-  </si>
-  <si>
-    <t>*only edit cells in yellow, please consider that only integer number must be introduced</t>
+    <t>Selected simulation within the "Num_perfiles_gen" group to be simulated along the different cost allocation methods</t>
+  </si>
+  <si>
+    <t>*edit only cells in yellow, please consider that only integer numbers must be introduced</t>
+  </si>
+  <si>
+    <t>min_N =  10
+max_N =  1000</t>
+  </si>
+  <si>
+    <t>min_Num_perfiles_gen = 10
+max_Num_perfiles_gen = 100</t>
+  </si>
+  <si>
+    <t>min_PERFILGEN = 1
+max_PERFILGEN = max_Num_perfiles_gen</t>
+  </si>
+  <si>
+    <t>Symbol within R Code</t>
   </si>
 </sst>
 </file>
@@ -188,7 +200,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -206,6 +218,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -523,31 +538,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A5" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.6640625" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="56.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" style="4"/>
+    <col min="4" max="4" width="37.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -557,8 +573,11 @@
       <c r="C2" s="5">
         <v>100</v>
       </c>
+      <c r="D2" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -568,10 +587,13 @@
       <c r="C3" s="5">
         <v>51</v>
       </c>
+      <c r="D3" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
@@ -579,22 +601,39 @@
       <c r="C4" s="5">
         <v>10</v>
       </c>
+      <c r="D4" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="eEwPVyHrtBDPolru6IubIeMbGdBAHETfJ1jPt4ATcllOcOgeViy1t6LAdVWAvckt0LS8mKsioIvbYlObiQ1c7w==" saltValue="xLCl8KXl+yjf/UfDWkTZag==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qh0BO02d1EMg3hcNoqxHHwkxMuMgJ+1f2RD/QhQp8POSGoI2/52jS+Sce1s9hTp93Iow7n/NZCF6R8a3Bw/uhw==" saltValue="QcVjqHapVp233zh1lOVk+g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
     <protectedRange algorithmName="SHA-512" hashValue="QcA0Z6+KBixm2/j6hdA8sLIXVbP7MTgKLbC1N2I3o8r9Tq2h487EJpnUJXxbrST50ozx1PvxdR1PcfqdoCl9gw==" saltValue="P/wDYYJT8oC/Sqcvs+87Iw==" spinCount="100000" sqref="C2:C4" name="Rango1"/>
   </protectedRanges>
   <mergeCells count="1">
     <mergeCell ref="A5:C5"/>
   </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{BDBB964B-9E4B-4C9D-93A7-05C97A64B9BE}">
+      <formula1>10</formula1>
+      <formula2>1000</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{E1EC58CE-08BF-4891-AB47-46C56711564D}">
+      <formula1>10</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{13416F3F-4B2E-4E4F-97B5-2A704BAF772E}">
+      <formula1>1</formula1>
+      <formula2>C3</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
